--- a/biology/Zoologie/Roger_Conant_(herpétologiste)/Roger_Conant_(herpétologiste).xlsx
+++ b/biology/Zoologie/Roger_Conant_(herpétologiste)/Roger_Conant_(herpétologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roger_Conant_(herp%C3%A9tologiste)</t>
+          <t>Roger_Conant_(herpétologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Conant est un herpétologiste américain, né le 6 mai 1909 à Mamaroneck (New York) et mort le 19 décembre 2003 à Albuquerque des suites d’un cancer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roger_Conant_(herp%C3%A9tologiste)</t>
+          <t>Roger_Conant_(herpétologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Clara Elizabeth (née Rogers) et de Charles Francis Conant. Orphelin de père en 1921, sa mère devient institutrice. Il découvre l’herpétologie à 12 ans, alors qu’il était dans un camp de boy scouts encadré par deux étudiants de l’herpétologiste Albert Hazen Wright (1820-1970). Diplômé à 16 ans, il cherche aussitôt un travail. Il devient caissier au Twin Brook Zoo. Son intérêt pour les animaux le fait remarquer des gardiens. Conant devient alors convaincu qu’il a trouvé sa voie, mais sa mère refuse qu’il suive des études de zoologie et il entreprend des études médicales à l’université de Pennsylvanie. En 1929, il obtient un travail comme gardien des reptiles au zoo de Toledo. En 1935, il part travailler au zoo de Philadelphie, le plus ancien des États-Unis d'Amérique. Il va y faire toute sa carrière (il en assure la direction de 1967 à 1973, date de son départ à la retraite). Outre ses activités comme chercheur et au sein du zoo, il anime durant 34 ans une émission de radio sur les animaux.
 Conant étudie très tôt après son arrivée à Toledo, les reptiles de l’État et reçoit l’aide des frères Reeve Maclaren Bailey (1911-2011) et Joseph Randle Bailey (1913-1998), alors étudiants. Le résultat de cette étude paraîtra en 1938 sous le titre de Reptiles of Ohio (réédité en 1951). Il rencontre plusieurs herpétologistes d’Ann Arbor comme Helen Thompson Gaige (1890-1976), Alexander Grant Ruthven (1882-1971), Frank Nelson Blanchard (1888-1937), Howard Kay Gloyd (1902-1978) ou Norman Edouard Hartweg (1904-1964).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roger_Conant_(herp%C3%A9tologiste)</t>
+          <t>Roger_Conant_(herpétologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaret M. Stewart et Dale Beicher (2001). Roger Conant, Copeia, 2001 (4) : 1158–1161.  (ISSN 0045-8511)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie                    </t>
